--- a/test2.xlsx
+++ b/test2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\agenc\OneDrive\Área de Trabalho\test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\db-update-api\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07E89D7D-08C5-47F3-ABA6-DAEEF688B55C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30652AE6-3A53-4EBA-89B5-8E02385105E7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13905" yWindow="1575" windowWidth="7305" windowHeight="11370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="20640" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
   <externalReferences>
     <externalReference r:id="rId2"/>
   </externalReferences>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -152,412 +152,6 @@
             <v>Platform for building mobile &amp; desktop web app</v>
           </cell>
           <cell r="D6">
-            <v>43717</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="A7">
-            <v>4</v>
-          </cell>
-          <cell r="B7" t="str">
-            <v>Angular.js</v>
-          </cell>
-          <cell r="C7" t="str">
-            <v>Platform for building mobile &amp; desktop web app</v>
-          </cell>
-          <cell r="D7">
-            <v>43717</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="A8">
-            <v>4</v>
-          </cell>
-          <cell r="B8" t="str">
-            <v>Angular.js</v>
-          </cell>
-          <cell r="C8" t="str">
-            <v>Platform for building mobile &amp; desktop web app</v>
-          </cell>
-          <cell r="D8">
-            <v>43717</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="A9">
-            <v>4</v>
-          </cell>
-          <cell r="B9" t="str">
-            <v>Angular.js</v>
-          </cell>
-          <cell r="C9" t="str">
-            <v>Platform for building mobile &amp; desktop web app</v>
-          </cell>
-          <cell r="D9">
-            <v>43717</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="A10">
-            <v>4</v>
-          </cell>
-          <cell r="B10" t="str">
-            <v>Angular.js</v>
-          </cell>
-          <cell r="C10" t="str">
-            <v>Platform for building mobile &amp; desktop web app</v>
-          </cell>
-          <cell r="D10">
-            <v>43717</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="A11">
-            <v>4</v>
-          </cell>
-          <cell r="B11" t="str">
-            <v>Angular.js</v>
-          </cell>
-          <cell r="C11" t="str">
-            <v>Platform for building mobile &amp; desktop web app</v>
-          </cell>
-          <cell r="D11">
-            <v>43717</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="A12">
-            <v>4</v>
-          </cell>
-          <cell r="B12" t="str">
-            <v>Angular.js</v>
-          </cell>
-          <cell r="C12" t="str">
-            <v>Platform for building mobile &amp; desktop web app</v>
-          </cell>
-          <cell r="D12">
-            <v>43717</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="A13">
-            <v>4</v>
-          </cell>
-          <cell r="B13" t="str">
-            <v>Angular.js</v>
-          </cell>
-          <cell r="C13" t="str">
-            <v>Platform for building mobile &amp; desktop web app</v>
-          </cell>
-          <cell r="D13">
-            <v>43717</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="A14">
-            <v>4</v>
-          </cell>
-          <cell r="B14" t="str">
-            <v>Angular.js</v>
-          </cell>
-          <cell r="C14" t="str">
-            <v>Platform for building mobile &amp; desktop web app</v>
-          </cell>
-          <cell r="D14">
-            <v>43717</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="A15">
-            <v>4</v>
-          </cell>
-          <cell r="B15" t="str">
-            <v>Angular.js</v>
-          </cell>
-          <cell r="C15" t="str">
-            <v>Platform for building mobile &amp; desktop web app</v>
-          </cell>
-          <cell r="D15">
-            <v>43717</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="A16">
-            <v>4</v>
-          </cell>
-          <cell r="B16" t="str">
-            <v>Angular.js</v>
-          </cell>
-          <cell r="C16" t="str">
-            <v>Platform for building mobile &amp; desktop web app</v>
-          </cell>
-          <cell r="D16">
-            <v>43717</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="A17">
-            <v>4</v>
-          </cell>
-          <cell r="B17" t="str">
-            <v>Angular.js</v>
-          </cell>
-          <cell r="C17" t="str">
-            <v>Platform for building mobile &amp; desktop web app</v>
-          </cell>
-          <cell r="D17">
-            <v>43717</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="A18">
-            <v>4</v>
-          </cell>
-          <cell r="B18" t="str">
-            <v>Angular.js</v>
-          </cell>
-          <cell r="C18" t="str">
-            <v>Platform for building mobile &amp; desktop web app</v>
-          </cell>
-          <cell r="D18">
-            <v>43717</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="A19">
-            <v>4</v>
-          </cell>
-          <cell r="B19" t="str">
-            <v>Angular.js</v>
-          </cell>
-          <cell r="C19" t="str">
-            <v>Platform for building mobile &amp; desktop web app</v>
-          </cell>
-          <cell r="D19">
-            <v>43717</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="A20">
-            <v>4</v>
-          </cell>
-          <cell r="B20" t="str">
-            <v>Angular.js</v>
-          </cell>
-          <cell r="C20" t="str">
-            <v>Platform for building mobile &amp; desktop web app</v>
-          </cell>
-          <cell r="D20">
-            <v>43717</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="A21">
-            <v>4</v>
-          </cell>
-          <cell r="B21" t="str">
-            <v>Angular.js</v>
-          </cell>
-          <cell r="C21" t="str">
-            <v>Platform for building mobile &amp; desktop web app</v>
-          </cell>
-          <cell r="D21">
-            <v>43717</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="A22">
-            <v>4</v>
-          </cell>
-          <cell r="B22" t="str">
-            <v>Angular.js</v>
-          </cell>
-          <cell r="C22" t="str">
-            <v>Platform for building mobile &amp; desktop web app</v>
-          </cell>
-          <cell r="D22">
-            <v>43717</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="A23">
-            <v>4</v>
-          </cell>
-          <cell r="B23" t="str">
-            <v>Angular.js</v>
-          </cell>
-          <cell r="C23" t="str">
-            <v>Platform for building mobile &amp; desktop web app</v>
-          </cell>
-          <cell r="D23">
-            <v>43717</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="A24">
-            <v>4</v>
-          </cell>
-          <cell r="B24" t="str">
-            <v>Angular.js</v>
-          </cell>
-          <cell r="C24" t="str">
-            <v>Platform for building mobile &amp; desktop web app</v>
-          </cell>
-          <cell r="D24">
-            <v>43717</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="A25">
-            <v>4</v>
-          </cell>
-          <cell r="B25" t="str">
-            <v>Angular.js</v>
-          </cell>
-          <cell r="C25" t="str">
-            <v>Platform for building mobile &amp; desktop web app</v>
-          </cell>
-          <cell r="D25">
-            <v>43717</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="A26">
-            <v>4</v>
-          </cell>
-          <cell r="B26" t="str">
-            <v>Angular.js</v>
-          </cell>
-          <cell r="C26" t="str">
-            <v>Platform for building mobile &amp; desktop web app</v>
-          </cell>
-          <cell r="D26">
-            <v>43717</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="A27">
-            <v>4</v>
-          </cell>
-          <cell r="B27" t="str">
-            <v>Angular.js</v>
-          </cell>
-          <cell r="C27" t="str">
-            <v>Platform for building mobile &amp; desktop web app</v>
-          </cell>
-          <cell r="D27">
-            <v>43717</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="A28">
-            <v>4</v>
-          </cell>
-          <cell r="B28" t="str">
-            <v>Angular.js</v>
-          </cell>
-          <cell r="C28" t="str">
-            <v>Platform for building mobile &amp; desktop web app</v>
-          </cell>
-          <cell r="D28">
-            <v>43717</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="A29">
-            <v>4</v>
-          </cell>
-          <cell r="B29" t="str">
-            <v>Angular.js</v>
-          </cell>
-          <cell r="C29" t="str">
-            <v>Platform for building mobile &amp; desktop web app</v>
-          </cell>
-          <cell r="D29">
-            <v>43717</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="A30">
-            <v>4</v>
-          </cell>
-          <cell r="B30" t="str">
-            <v>Angular.js</v>
-          </cell>
-          <cell r="C30" t="str">
-            <v>Platform for building mobile &amp; desktop web app</v>
-          </cell>
-          <cell r="D30">
-            <v>43717</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="A31">
-            <v>4</v>
-          </cell>
-          <cell r="B31" t="str">
-            <v>Angular.js</v>
-          </cell>
-          <cell r="C31" t="str">
-            <v>Platform for building mobile &amp; desktop web app</v>
-          </cell>
-          <cell r="D31">
-            <v>43717</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="A32">
-            <v>4</v>
-          </cell>
-          <cell r="B32" t="str">
-            <v>Angular.js</v>
-          </cell>
-          <cell r="C32" t="str">
-            <v>Platform for building mobile &amp; desktop web app</v>
-          </cell>
-          <cell r="D32">
-            <v>43717</v>
-          </cell>
-        </row>
-        <row r="33">
-          <cell r="A33">
-            <v>4</v>
-          </cell>
-          <cell r="B33" t="str">
-            <v>Angular.js</v>
-          </cell>
-          <cell r="C33" t="str">
-            <v>Platform for building mobile &amp; desktop web app</v>
-          </cell>
-          <cell r="D33">
-            <v>43717</v>
-          </cell>
-        </row>
-        <row r="34">
-          <cell r="A34">
-            <v>4</v>
-          </cell>
-          <cell r="B34" t="str">
-            <v>Angular.js</v>
-          </cell>
-          <cell r="C34" t="str">
-            <v>Platform for building mobile &amp; desktop web app</v>
-          </cell>
-          <cell r="D34">
-            <v>43717</v>
-          </cell>
-        </row>
-        <row r="35">
-          <cell r="A35">
-            <v>4</v>
-          </cell>
-          <cell r="B35" t="str">
-            <v>Angular.js</v>
-          </cell>
-          <cell r="C35" t="str">
-            <v>Platform for building mobile &amp; desktop web app</v>
-          </cell>
-          <cell r="D35">
             <v>43717</v>
           </cell>
         </row>
@@ -832,9 +426,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -871,175 +463,175 @@
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="str">
         <f>IF([1]Plan1!A7="","",CONCATENATE([1]Plan1!A7,",",[1]Plan1!B7,",",[1]Plan1!C7,",",[1]Plan1!D7))</f>
-        <v>4,Angular.js,Platform for building mobile &amp; desktop web app,43717</v>
+        <v/>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="str">
         <f>IF([1]Plan1!A8="","",CONCATENATE([1]Plan1!A8,",",[1]Plan1!B8,",",[1]Plan1!C8,",",[1]Plan1!D8))</f>
-        <v>4,Angular.js,Platform for building mobile &amp; desktop web app,43717</v>
+        <v/>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="str">
         <f>IF([1]Plan1!A9="","",CONCATENATE([1]Plan1!A9,",",[1]Plan1!B9,",",[1]Plan1!C9,",",[1]Plan1!D9))</f>
-        <v>4,Angular.js,Platform for building mobile &amp; desktop web app,43717</v>
+        <v/>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="str">
         <f>IF([1]Plan1!A10="","",CONCATENATE([1]Plan1!A10,",",[1]Plan1!B10,",",[1]Plan1!C10,",",[1]Plan1!D10))</f>
-        <v>4,Angular.js,Platform for building mobile &amp; desktop web app,43717</v>
+        <v/>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="str">
         <f>IF([1]Plan1!A11="","",CONCATENATE([1]Plan1!A11,",",[1]Plan1!B11,",",[1]Plan1!C11,",",[1]Plan1!D11))</f>
-        <v>4,Angular.js,Platform for building mobile &amp; desktop web app,43717</v>
+        <v/>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="str">
         <f>IF([1]Plan1!A12="","",CONCATENATE([1]Plan1!A12,",",[1]Plan1!B12,",",[1]Plan1!C12,",",[1]Plan1!D12))</f>
-        <v>4,Angular.js,Platform for building mobile &amp; desktop web app,43717</v>
+        <v/>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="str">
         <f>IF([1]Plan1!A13="","",CONCATENATE([1]Plan1!A13,",",[1]Plan1!B13,",",[1]Plan1!C13,",",[1]Plan1!D13))</f>
-        <v>4,Angular.js,Platform for building mobile &amp; desktop web app,43717</v>
+        <v/>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="str">
         <f>IF([1]Plan1!A14="","",CONCATENATE([1]Plan1!A14,",",[1]Plan1!B14,",",[1]Plan1!C14,",",[1]Plan1!D14))</f>
-        <v>4,Angular.js,Platform for building mobile &amp; desktop web app,43717</v>
+        <v/>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="str">
         <f>IF([1]Plan1!A15="","",CONCATENATE([1]Plan1!A15,",",[1]Plan1!B15,",",[1]Plan1!C15,",",[1]Plan1!D15))</f>
-        <v>4,Angular.js,Platform for building mobile &amp; desktop web app,43717</v>
+        <v/>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="str">
         <f>IF([1]Plan1!A16="","",CONCATENATE([1]Plan1!A16,",",[1]Plan1!B16,",",[1]Plan1!C16,",",[1]Plan1!D16))</f>
-        <v>4,Angular.js,Platform for building mobile &amp; desktop web app,43717</v>
+        <v/>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="str">
         <f>IF([1]Plan1!A17="","",CONCATENATE([1]Plan1!A17,",",[1]Plan1!B17,",",[1]Plan1!C17,",",[1]Plan1!D17))</f>
-        <v>4,Angular.js,Platform for building mobile &amp; desktop web app,43717</v>
+        <v/>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="str">
         <f>IF([1]Plan1!A18="","",CONCATENATE([1]Plan1!A18,",",[1]Plan1!B18,",",[1]Plan1!C18,",",[1]Plan1!D18))</f>
-        <v>4,Angular.js,Platform for building mobile &amp; desktop web app,43717</v>
+        <v/>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="str">
         <f>IF([1]Plan1!A19="","",CONCATENATE([1]Plan1!A19,",",[1]Plan1!B19,",",[1]Plan1!C19,",",[1]Plan1!D19))</f>
-        <v>4,Angular.js,Platform for building mobile &amp; desktop web app,43717</v>
+        <v/>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="str">
         <f>IF([1]Plan1!A20="","",CONCATENATE([1]Plan1!A20,",",[1]Plan1!B20,",",[1]Plan1!C20,",",[1]Plan1!D20))</f>
-        <v>4,Angular.js,Platform for building mobile &amp; desktop web app,43717</v>
+        <v/>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="str">
         <f>IF([1]Plan1!A21="","",CONCATENATE([1]Plan1!A21,",",[1]Plan1!B21,",",[1]Plan1!C21,",",[1]Plan1!D21))</f>
-        <v>4,Angular.js,Platform for building mobile &amp; desktop web app,43717</v>
+        <v/>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="str">
         <f>IF([1]Plan1!A22="","",CONCATENATE([1]Plan1!A22,",",[1]Plan1!B22,",",[1]Plan1!C22,",",[1]Plan1!D22))</f>
-        <v>4,Angular.js,Platform for building mobile &amp; desktop web app,43717</v>
+        <v/>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="str">
         <f>IF([1]Plan1!A23="","",CONCATENATE([1]Plan1!A23,",",[1]Plan1!B23,",",[1]Plan1!C23,",",[1]Plan1!D23))</f>
-        <v>4,Angular.js,Platform for building mobile &amp; desktop web app,43717</v>
+        <v/>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="str">
         <f>IF([1]Plan1!A24="","",CONCATENATE([1]Plan1!A24,",",[1]Plan1!B24,",",[1]Plan1!C24,",",[1]Plan1!D24))</f>
-        <v>4,Angular.js,Platform for building mobile &amp; desktop web app,43717</v>
+        <v/>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="str">
         <f>IF([1]Plan1!A25="","",CONCATENATE([1]Plan1!A25,",",[1]Plan1!B25,",",[1]Plan1!C25,",",[1]Plan1!D25))</f>
-        <v>4,Angular.js,Platform for building mobile &amp; desktop web app,43717</v>
+        <v/>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="str">
         <f>IF([1]Plan1!A26="","",CONCATENATE([1]Plan1!A26,",",[1]Plan1!B26,",",[1]Plan1!C26,",",[1]Plan1!D26))</f>
-        <v>4,Angular.js,Platform for building mobile &amp; desktop web app,43717</v>
+        <v/>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="str">
         <f>IF([1]Plan1!A27="","",CONCATENATE([1]Plan1!A27,",",[1]Plan1!B27,",",[1]Plan1!C27,",",[1]Plan1!D27))</f>
-        <v>4,Angular.js,Platform for building mobile &amp; desktop web app,43717</v>
+        <v/>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="str">
         <f>IF([1]Plan1!A28="","",CONCATENATE([1]Plan1!A28,",",[1]Plan1!B28,",",[1]Plan1!C28,",",[1]Plan1!D28))</f>
-        <v>4,Angular.js,Platform for building mobile &amp; desktop web app,43717</v>
+        <v/>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="str">
         <f>IF([1]Plan1!A29="","",CONCATENATE([1]Plan1!A29,",",[1]Plan1!B29,",",[1]Plan1!C29,",",[1]Plan1!D29))</f>
-        <v>4,Angular.js,Platform for building mobile &amp; desktop web app,43717</v>
+        <v/>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="str">
         <f>IF([1]Plan1!A30="","",CONCATENATE([1]Plan1!A30,",",[1]Plan1!B30,",",[1]Plan1!C30,",",[1]Plan1!D30))</f>
-        <v>4,Angular.js,Platform for building mobile &amp; desktop web app,43717</v>
+        <v/>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" t="str">
         <f>IF([1]Plan1!A31="","",CONCATENATE([1]Plan1!A31,",",[1]Plan1!B31,",",[1]Plan1!C31,",",[1]Plan1!D31))</f>
-        <v>4,Angular.js,Platform for building mobile &amp; desktop web app,43717</v>
+        <v/>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" t="str">
         <f>IF([1]Plan1!A32="","",CONCATENATE([1]Plan1!A32,",",[1]Plan1!B32,",",[1]Plan1!C32,",",[1]Plan1!D32))</f>
-        <v>4,Angular.js,Platform for building mobile &amp; desktop web app,43717</v>
+        <v/>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" t="str">
         <f>IF([1]Plan1!A33="","",CONCATENATE([1]Plan1!A33,",",[1]Plan1!B33,",",[1]Plan1!C33,",",[1]Plan1!D33))</f>
-        <v>4,Angular.js,Platform for building mobile &amp; desktop web app,43717</v>
+        <v/>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="str">
         <f>IF([1]Plan1!A34="","",CONCATENATE([1]Plan1!A34,",",[1]Plan1!B34,",",[1]Plan1!C34,",",[1]Plan1!D34))</f>
-        <v>4,Angular.js,Platform for building mobile &amp; desktop web app,43717</v>
+        <v/>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" t="str">
         <f>IF([1]Plan1!A35="","",CONCATENATE([1]Plan1!A35,",",[1]Plan1!B35,",",[1]Plan1!C35,",",[1]Plan1!D35))</f>
-        <v>4,Angular.js,Platform for building mobile &amp; desktop web app,43717</v>
+        <v/>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
